--- a/ucsb_mae.xlsx
+++ b/ucsb_mae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>06</t>
   </si>
@@ -79,12 +79,18 @@
     <t>engineering design</t>
   </si>
   <si>
+    <t>partial differential</t>
+  </si>
+  <si>
     <t>engineer ing</t>
   </si>
   <si>
     <t>multiphase flows</t>
   </si>
   <si>
+    <t>basic numerical</t>
+  </si>
+  <si>
     <t>finite element</t>
   </si>
   <si>
@@ -97,9 +103,15 @@
     <t>structural analysis</t>
   </si>
   <si>
+    <t>engineering mechanical</t>
+  </si>
+  <si>
     <t>design project</t>
   </si>
   <si>
+    <t>methods linear</t>
+  </si>
+  <si>
     <t>linear algebra</t>
   </si>
   <si>
@@ -124,6 +136,12 @@
     <t>machine shop</t>
   </si>
   <si>
+    <t>ordinary differential</t>
+  </si>
+  <si>
+    <t>units variable</t>
+  </si>
+  <si>
     <t>mechanics materials</t>
   </si>
   <si>
@@ -178,6 +196,9 @@
     <t>element methods</t>
   </si>
   <si>
+    <t>basic electrical</t>
+  </si>
+  <si>
     <t>engineering graphics</t>
   </si>
   <si>
@@ -205,93 +226,93 @@
     <t>milstein odette</t>
   </si>
   <si>
+    <t>departmental elective</t>
+  </si>
+  <si>
     <t>university staff</t>
   </si>
   <si>
     <t>sensors actuators</t>
   </si>
   <si>
-    <t>computer interfacing</t>
-  </si>
-  <si>
-    <t>aeronautical engineering</t>
-  </si>
-  <si>
-    <t>water supply</t>
+    <t>chemical engineer</t>
+  </si>
+  <si>
+    <t>mechanical behavior</t>
+  </si>
+  <si>
+    <t>conservation principles</t>
+  </si>
+  <si>
+    <t>engineering a-b-c</t>
+  </si>
+  <si>
+    <t>numerical simulation</t>
+  </si>
+  <si>
+    <t>convective heat</t>
+  </si>
+  <si>
+    <t>boundary conditions</t>
+  </si>
+  <si>
+    <t>dynamic systems</t>
+  </si>
+  <si>
+    <t>applied mechanics</t>
+  </si>
+  <si>
+    <t>energy methods</t>
+  </si>
+  <si>
+    <t>algebraic equations</t>
+  </si>
+  <si>
+    <t>engineering laboratory</t>
+  </si>
+  <si>
+    <t>analytical methods</t>
+  </si>
+  <si>
+    <t>linear algebraic</t>
+  </si>
+  <si>
+    <t>recent developments</t>
+  </si>
+  <si>
+    <t>specialized courses</t>
+  </si>
+  <si>
+    <t>courses dealing</t>
+  </si>
+  <si>
+    <t>areas dynamic</t>
+  </si>
+  <si>
+    <t>systems control</t>
+  </si>
+  <si>
+    <t>ocean engineering</t>
+  </si>
+  <si>
+    <t>engineering solid</t>
+  </si>
+  <si>
+    <t>solid mechanics</t>
+  </si>
+  <si>
+    <t>structures thermal</t>
+  </si>
+  <si>
+    <t>thermal sciences</t>
+  </si>
+  <si>
+    <t>developments inone</t>
   </si>
   <si>
     <t>coastal engineering</t>
   </si>
   <si>
-    <t>thermal sciences</t>
-  </si>
-  <si>
-    <t>recent developments</t>
-  </si>
-  <si>
-    <t>phase change</t>
-  </si>
-  <si>
-    <t>experimental techniques</t>
-  </si>
-  <si>
-    <t>chemical engineer</t>
-  </si>
-  <si>
-    <t>conservation principles</t>
-  </si>
-  <si>
-    <t>applica tions</t>
-  </si>
-  <si>
-    <t>numerical simulation</t>
-  </si>
-  <si>
-    <t>convective heat</t>
-  </si>
-  <si>
-    <t>boundary conditions</t>
-  </si>
-  <si>
-    <t>dynamic systems</t>
-  </si>
-  <si>
-    <t>applied mechanics</t>
-  </si>
-  <si>
-    <t>energy methods</t>
-  </si>
-  <si>
-    <t>upper division</t>
-  </si>
-  <si>
-    <t>algebraic equations</t>
-  </si>
-  <si>
-    <t>analytical methods</t>
-  </si>
-  <si>
-    <t>physical phenomena</t>
-  </si>
-  <si>
-    <t>specialized courses</t>
-  </si>
-  <si>
-    <t>courses dealing</t>
-  </si>
-  <si>
-    <t>systems control</t>
-  </si>
-  <si>
-    <t>ocean engineering</t>
-  </si>
-  <si>
-    <t>solid mechanics</t>
-  </si>
-  <si>
-    <t>developments inone</t>
-  </si>
-  <si>
     <t>individual courses</t>
   </si>
   <si>
@@ -301,27 +322,51 @@
     <t>controls design</t>
   </si>
   <si>
+    <t>design environmental</t>
+  </si>
+  <si>
     <t>science mechanics</t>
   </si>
   <si>
     <t>engineering robotics</t>
   </si>
   <si>
+    <t>robotics theoretical</t>
+  </si>
+  <si>
+    <t>theoretical mechanics,thermal</t>
+  </si>
+  <si>
     <t>mechanics,thermal sciences</t>
   </si>
   <si>
     <t>subjects applied</t>
   </si>
   <si>
+    <t>mechanics cad/cam</t>
+  </si>
+  <si>
+    <t>comments same</t>
+  </si>
+  <si>
     <t>comments quarters</t>
   </si>
   <si>
+    <t>offered fall</t>
+  </si>
+  <si>
     <t>offered winter</t>
   </si>
   <si>
     <t>cellular biomechanics</t>
   </si>
   <si>
+    <t>language same</t>
+  </si>
+  <si>
+    <t>staff enrollment</t>
+  </si>
+  <si>
     <t>boundary layers</t>
   </si>
   <si>
@@ -331,10 +376,13 @@
     <t>manufacturing processes</t>
   </si>
   <si>
+    <t>moehlis gibou</t>
+  </si>
+  <si>
     <t>offered spring</t>
   </si>
   <si>
-    <t>mechanical behavior</t>
+    <t>pennathur turner</t>
   </si>
   <si>
     <t>fundamental concepts</t>
@@ -343,15 +391,12 @@
     <t>basic equations</t>
   </si>
   <si>
-    <t>offered fall</t>
-  </si>
-  <si>
-    <t>pennathur turner</t>
-  </si>
-  <si>
     <t>matrix computations</t>
   </si>
   <si>
+    <t>capstone mechanical</t>
+  </si>
+  <si>
     <t>quarter sequence</t>
   </si>
   <si>
@@ -364,15 +409,24 @@
     <t>full sequence</t>
   </si>
   <si>
+    <t>sequence a-b-c</t>
+  </si>
+  <si>
     <t>project engineering</t>
   </si>
   <si>
     <t>engineering communication</t>
   </si>
   <si>
+    <t>communication such</t>
+  </si>
+  <si>
     <t>oral presentations</t>
   </si>
   <si>
+    <t>practical hands-on</t>
+  </si>
+  <si>
     <t>hands-on experience</t>
   </si>
   <si>
@@ -385,205 +439,43 @@
     <t>conformal mapping</t>
   </si>
   <si>
-    <t>stability theory</t>
-  </si>
-  <si>
-    <t>ap calculus</t>
-  </si>
-  <si>
-    <t>elective requirement</t>
+    <t>majors quarters</t>
+  </si>
+  <si>
+    <t>multiphysics simulation</t>
+  </si>
+  <si>
+    <t>programming language</t>
+  </si>
+  <si>
+    <t>engineering a-b</t>
+  </si>
+  <si>
+    <t>analytical solutions</t>
+  </si>
+  <si>
+    <t>materials fee</t>
+  </si>
+  <si>
+    <t>matrix algebra</t>
   </si>
   <si>
     <t>collapse courses</t>
   </si>
   <si>
-    <t>majors quarters</t>
-  </si>
-  <si>
-    <t>multiphysics simulation</t>
-  </si>
-  <si>
-    <t>programming language</t>
-  </si>
-  <si>
-    <t>analytical solutions</t>
-  </si>
-  <si>
-    <t>materials fee</t>
-  </si>
-  <si>
     <t>matrix methods</t>
   </si>
   <si>
     <t>required repeat</t>
   </si>
   <si>
-    <t>case studies</t>
-  </si>
-  <si>
     <t>fluid flow</t>
   </si>
   <si>
     <t>energy theorems</t>
   </si>
   <si>
-    <t>software engineering</t>
-  </si>
-  <si>
-    <t>computer engineering</t>
-  </si>
-  <si>
-    <t>data structures</t>
-  </si>
-  <si>
-    <t>systems cmpsc</t>
-  </si>
-  <si>
-    <t>general cmpsc</t>
-  </si>
-  <si>
-    <t>science foundations</t>
-  </si>
-  <si>
-    <t>science systems</t>
-  </si>
-  <si>
-    <t>completed computer</t>
-  </si>
-  <si>
-    <t>engineering cmpsc</t>
-  </si>
-  <si>
-    <t>science applications</t>
-  </si>
-  <si>
-    <t>legal repeat</t>
-  </si>
-  <si>
-    <t>cmpsc aazz</t>
-  </si>
-  <si>
-    <t>computational science</t>
-  </si>
-  <si>
-    <t>science computer</t>
-  </si>
-  <si>
-    <t>problem solving</t>
-  </si>
-  <si>
-    <t>scientific computing</t>
-  </si>
-  <si>
-    <t>computer architecture</t>
-  </si>
-  <si>
-    <t>computer systems</t>
-  </si>
-  <si>
-    <t>machine learning</t>
-  </si>
-  <si>
-    <t>distributed systems</t>
-  </si>
-  <si>
-    <t>information systems</t>
-  </si>
-  <si>
-    <t>computer graphics</t>
-  </si>
-  <si>
-    <t>computer vision</t>
-  </si>
-  <si>
-    <t>problems using</t>
-  </si>
-  <si>
-    <t>memory management</t>
-  </si>
-  <si>
-    <t>independent studies</t>
-  </si>
-  <si>
-    <t>staff enrollment</t>
-  </si>
-  <si>
-    <t>database design</t>
-  </si>
-  <si>
-    <t>mobile computing</t>
-  </si>
-  <si>
-    <t>software systems</t>
-  </si>
-  <si>
-    <t>interactive systems</t>
-  </si>
-  <si>
-    <t>data mining</t>
-  </si>
-  <si>
-    <t>building blocks</t>
-  </si>
-  <si>
-    <t>computer organization</t>
-  </si>
-  <si>
-    <t>tools cmpsc</t>
-  </si>
-  <si>
-    <t>include data</t>
-  </si>
-  <si>
-    <t>application development</t>
-  </si>
-  <si>
-    <t>engineering enrollment</t>
-  </si>
-  <si>
-    <t>type systems</t>
-  </si>
-  <si>
-    <t>el abbadi</t>
-  </si>
-  <si>
-    <t>database systems</t>
-  </si>
-  <si>
-    <t>complete computer</t>
-  </si>
-  <si>
-    <t>data model</t>
-  </si>
-  <si>
-    <t>security cmpsc</t>
-  </si>
-  <si>
-    <t>techniques cmpsc</t>
-  </si>
-  <si>
-    <t>department chair</t>
-  </si>
-  <si>
-    <t>information management</t>
-  </si>
-  <si>
-    <t>mining cmpsc</t>
-  </si>
-  <si>
-    <t>individual studies</t>
-  </si>
-  <si>
-    <t>problems cmpsc</t>
-  </si>
-  <si>
-    <t>computational thinking</t>
-  </si>
-  <si>
-    <t>language cmpsc</t>
-  </si>
-  <si>
-    <t>laboratory cmpsc</t>
+    <t>additive manufacturing</t>
   </si>
 </sst>
 </file>
@@ -941,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1029,7 +921,7 @@
         <v>43</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1073,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1117,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1161,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="N5">
-        <v>157</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1205,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1249,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1293,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1337,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1348,40 +1240,40 @@
         <v>6</v>
       </c>
       <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1395,22 +1287,22 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1433,16 +1325,16 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -1463,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1477,22 +1369,22 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1510,10 +1402,10 @@
         <v>5</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1521,10 +1413,10 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1533,28 +1425,28 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1568,37 +1460,37 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1621,31 +1513,31 @@
         <v>4</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1656,37 +1548,37 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <v>5</v>
@@ -1700,13 +1592,13 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1721,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1733,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1753,31 +1645,31 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1809,19 +1701,19 @@
         <v>4</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1835,37 +1727,37 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1876,37 +1768,37 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1917,28 +1809,28 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1961,10 +1853,10 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -1985,16 +1877,16 @@
         <v>4</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2005,7 +1897,7 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2017,25 +1909,25 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2049,43 +1941,43 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2102,31 +1994,31 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2143,37 +2035,37 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2187,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2237,28 +2129,28 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2272,34 +2164,34 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2325,10 +2217,10 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -2337,19 +2229,19 @@
         <v>3</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2363,37 +2255,37 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2407,22 +2299,22 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2454,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2463,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2513,19 +2405,19 @@
         <v>3</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2539,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2589,10 +2481,10 @@
         <v>3</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -2601,16 +2493,16 @@
         <v>3</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2627,37 +2519,37 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2677,31 +2569,31 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2712,13 +2604,13 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2727,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2756,25 +2648,25 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2797,16 +2689,16 @@
         <v>54</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2821,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2841,16 +2733,16 @@
         <v>55</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2859,25 +2751,25 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2885,16 +2777,16 @@
         <v>56</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2903,25 +2795,25 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2929,16 +2821,16 @@
         <v>57</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2953,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2973,16 +2865,16 @@
         <v>58</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2997,16 +2889,16 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3017,16 +2909,16 @@
         <v>59</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3035,22 +2927,22 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3070,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3129,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3155,10 +3047,10 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3199,34 +3091,34 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3349,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3378,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3419,16 +3311,16 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3460,19 +3352,19 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3507,16 +3399,16 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3525,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3548,13 +3440,13 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3563,25 +3455,25 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3592,7 +3484,7 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3689,10 +3581,10 @@
         <v>3</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -3724,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3739,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3777,16 +3669,16 @@
         <v>3</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3821,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -3871,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3883,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3909,10 +3801,10 @@
         <v>3</v>
       </c>
       <c r="F68">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3927,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3947,16 +3839,16 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G69">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3965,16 +3857,16 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -3997,10 +3889,10 @@
         <v>2</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4065,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4085,10 +3977,10 @@
         <v>3</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -4109,7 +4001,7 @@
         <v>3</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4126,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4135,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4214,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -4261,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="G76">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4437,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G80">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4481,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G81">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -4525,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G82">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4569,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G83">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4613,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G84">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4657,10 +4549,10 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G85">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4701,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G86">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4745,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G87">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4789,28 +4681,28 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G88">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -4833,28 +4725,28 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -4877,28 +4769,28 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -4921,16 +4813,16 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4965,28 +4857,28 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5009,25 +4901,25 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -5053,28 +4945,28 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5097,16 +4989,16 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5141,28 +5033,28 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5185,28 +5077,28 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5229,28 +5121,28 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G98">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H98">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5273,31 +5165,31 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5317,31 +5209,31 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J100">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5361,31 +5253,31 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5405,31 +5297,31 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5449,31 +5341,31 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5493,31 +5385,31 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5537,28 +5429,28 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5581,28 +5473,28 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5625,31 +5517,31 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5690,7 +5582,7 @@
         <v>3</v>
       </c>
       <c r="M108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -5734,7 +5626,7 @@
         <v>3</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -5772,16 +5664,16 @@
         <v>3</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5822,7 +5714,7 @@
         <v>3</v>
       </c>
       <c r="M111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -5851,10 +5743,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112">
         <v>3</v>
@@ -5869,7 +5761,7 @@
         <v>3</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5895,25 +5787,25 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5939,25 +5831,25 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5983,16 +5875,16 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L115">
         <v>3</v>
@@ -6001,7 +5893,7 @@
         <v>3</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6027,22 +5919,22 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6071,25 +5963,25 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6115,22 +6007,22 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6159,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K119">
         <v>3</v>
@@ -6177,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="N119">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6203,16 +6095,16 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L120">
         <v>3</v>
@@ -6221,7 +6113,7 @@
         <v>3</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6253,10 +6145,10 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L121">
         <v>3</v>
@@ -6265,7 +6157,7 @@
         <v>3</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6297,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L122">
         <v>3</v>
@@ -6309,7 +6201,7 @@
         <v>3</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6341,19 +6233,19 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6385,19 +6277,19 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6429,10 +6321,10 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -6441,7 +6333,7 @@
         <v>3</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6473,19 +6365,19 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N126">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6517,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -6529,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6561,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -6573,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6605,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -6617,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6652,16 +6544,16 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N130">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6696,16 +6588,16 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N131">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6740,16 +6632,16 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6784,16 +6676,16 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6828,16 +6720,16 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N134">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6875,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N135">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6919,13 +6811,13 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6963,13 +6855,13 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N137">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7007,13 +6899,13 @@
         <v>0</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N138">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -7051,13 +6943,13 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N139">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7098,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N140">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7142,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7189,1591 +7081,7 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
-      <c r="A144" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="A145" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
-      <c r="A146" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>0</v>
-      </c>
-      <c r="N146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
-      <c r="A147" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="M147">
-        <v>0</v>
-      </c>
-      <c r="N147">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
-      <c r="A148" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <v>0</v>
-      </c>
-      <c r="N148">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
-      <c r="A149" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
-      </c>
-      <c r="N149">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
-      <c r="A150" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="N150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
-      <c r="A151" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-      <c r="N151">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
-      <c r="A152" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <v>0</v>
-      </c>
-      <c r="N152">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
-      <c r="A153" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="M153">
-        <v>0</v>
-      </c>
-      <c r="N153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
-      <c r="A154" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="M154">
-        <v>0</v>
-      </c>
-      <c r="N154">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
-      <c r="A155" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="M155">
-        <v>0</v>
-      </c>
-      <c r="N155">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="A156" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <v>0</v>
-      </c>
-      <c r="N156">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
-      <c r="A157" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <v>0</v>
-      </c>
-      <c r="N157">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
-      <c r="A158" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="M158">
-        <v>0</v>
-      </c>
-      <c r="N158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="A159" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="M159">
-        <v>0</v>
-      </c>
-      <c r="N159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
-      <c r="A160" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <v>0</v>
-      </c>
-      <c r="N160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
-      <c r="A161" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-      <c r="M161">
-        <v>0</v>
-      </c>
-      <c r="N161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
-      <c r="A162" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="M162">
-        <v>0</v>
-      </c>
-      <c r="N162">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
-      <c r="A163" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="M163">
-        <v>0</v>
-      </c>
-      <c r="N163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
-      <c r="A164" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164">
-        <v>0</v>
-      </c>
-      <c r="N164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
-      <c r="A165" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="M165">
-        <v>0</v>
-      </c>
-      <c r="N165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
-      <c r="A166" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-      <c r="M166">
-        <v>0</v>
-      </c>
-      <c r="N166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
-      <c r="A167" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-      <c r="M167">
-        <v>0</v>
-      </c>
-      <c r="N167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
-      <c r="A168" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
-      <c r="N168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
-      <c r="A169" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="M169">
-        <v>0</v>
-      </c>
-      <c r="N169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
-      <c r="A170" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-      <c r="M170">
-        <v>0</v>
-      </c>
-      <c r="N170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
-      <c r="A171" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-      <c r="M171">
-        <v>0</v>
-      </c>
-      <c r="N171">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
-      <c r="A172" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>0</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="M172">
-        <v>0</v>
-      </c>
-      <c r="N172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
-      <c r="A173" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-      <c r="M173">
-        <v>0</v>
-      </c>
-      <c r="N173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
-      <c r="A174" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>0</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-      <c r="M174">
-        <v>0</v>
-      </c>
-      <c r="N174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
-      <c r="A175" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>0</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-      <c r="M175">
-        <v>0</v>
-      </c>
-      <c r="N175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
-      <c r="A176" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>0</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
-        <v>0</v>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-      <c r="M176">
-        <v>0</v>
-      </c>
-      <c r="N176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
-      <c r="A177" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-      <c r="M177">
-        <v>0</v>
-      </c>
-      <c r="N177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
-      <c r="A178" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-      <c r="M178">
-        <v>0</v>
-      </c>
-      <c r="N178">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
